--- a/tabla_emitidos.xlsx
+++ b/tabla_emitidos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bran/Documents/GitHub/sg-equality-evidence-finder/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SARA\OneDrive\GORE\COMANDO COVID\6. TABLERO DE MANDO\repositorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61148099-B21C-DB4E-964B-2693E4EB3D5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15900" xr2:uid="{8538B298-561B-A142-93F9-CAE94F67BD92}"/>
+    <workbookView xWindow="375" yWindow="495" windowWidth="28035" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="129">
   <si>
     <t>Documento</t>
   </si>
@@ -39,12 +38,6 @@
     <t>Institucion</t>
   </si>
   <si>
-    <t>Oficio 55</t>
-  </si>
-  <si>
-    <t>asunto2</t>
-  </si>
-  <si>
     <t>http://rstudio.com</t>
   </si>
   <si>
@@ -54,22 +47,376 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>Los asuntos son generalmente mas largos y podran ocupar mas espacio de lo normal, tal como este asunto que esta ocupando mucho mas espacio. Posiblemente incluso mas</t>
-  </si>
-  <si>
     <t>Gobierno Regional Cusco</t>
   </si>
   <si>
-    <t>Presidencia del Consejo de Ministros</t>
-  </si>
-  <si>
-    <t>Carta 99-2020-154-GS2</t>
+    <t xml:space="preserve"> Informe N° 062-2020-GR CUSCO-DRSC-DG-DADRS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRESA-Dirección de Epidemiología e Investigación </t>
+  </si>
+  <si>
+    <t>Entrega de Relación de participantes y Actas del Comando COVID-19</t>
+  </si>
+  <si>
+    <t>Carta 77-2020-INCASA</t>
+  </si>
+  <si>
+    <t>Industrias Cachimayo S.A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respuesta al Oficio N°001 solicitud firme de Convenio para donación de Oxigeno. </t>
+  </si>
+  <si>
+    <t>Oficio N° 272-2020-GR CUSCO-GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicita autorización para la cuarentena obligatoria en la Provincia de La Convención- Departamento de Cusco frente a la situación actual a consecuencia del COVID 19 </t>
+  </si>
+  <si>
+    <t>Informe N° 04-2020-COMANDO COVID19-CUSCO-EMPO</t>
+  </si>
+  <si>
+    <t>Colegio de Antropólogos/Colegio Médico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informe segundo vuelo humanitario autofinanciado. </t>
+  </si>
+  <si>
+    <t>Oficio N° 1035-2020-SCG-VII-MACREPOL CUSCO-SEC</t>
+  </si>
+  <si>
+    <t>VII-MACREPOL CUSCO/SEC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remite cpia del documento presentada por la Junta Directiva de la Comunidad Campesina Fortaleza Sacsayhuamán, solicitando porroga para restringir acceso a dicha Comunidad. </t>
+  </si>
+  <si>
+    <t>Carta Colegio Medico del Perú - CUSCO</t>
+  </si>
+  <si>
+    <t>Colegio Medico del Perú - CUSCO</t>
+  </si>
+  <si>
+    <t>Comunica Reincorporación a la Comisión Comando COVID-19</t>
+  </si>
+  <si>
+    <t>Oficio N° 197-2020-AHZ-CR</t>
+  </si>
+  <si>
+    <t>Congreso de la República</t>
+  </si>
+  <si>
+    <t>Solicito brindar los criterios tomados en cuenta para la Cuarentena en la Provincia de La Convención.</t>
+  </si>
+  <si>
+    <t>Informe N° 1945-2020-GR.CUSCO-DRSC-DG-OCRRPP-PROMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informe N° 979-2020-GR CUSCO-ORAD-ORH </t>
+  </si>
+  <si>
+    <t>Oficina Regional de Administración - Oficina de Recursos Humanos</t>
+  </si>
+  <si>
+    <t>Informa respecto a la situación actual del COVID-19 en la Region del Cusco y sus implicancias en la Sede del Gobierno Regional de Cusco.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invitación Ejercito </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5° BRIGADA DE MONTAÑA </t>
+  </si>
+  <si>
+    <t>Tarjeta de Invitación por el CXCIX Aniversario de la Independencia Nacional.</t>
+  </si>
+  <si>
+    <t>Oficio N° 021-2020 -PCD-CCISTPC</t>
+  </si>
+  <si>
+    <t>CAMARA DE COMERCIO DE CUSCO</t>
+  </si>
+  <si>
+    <t>Acredita participación en Comando COVID-19</t>
+  </si>
+  <si>
+    <t>Memorandum Multiple N° 166-2020-GR CUSCO/GGR</t>
+  </si>
+  <si>
+    <t>Gobierno Regional Cusco - Gerencia General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunica conformación Comité y PMO para la Gestión de la Provisión, Envasado, Almacenamiento, Transporte y Distribución en la Planta de Cachimayo. </t>
+  </si>
+  <si>
+    <t>Memorandum Multiple N 174-2020-GR CUSCO/GGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conformacion de Comité de Acondicionamiento de espacios para Implementar Camas COVID-19 en las Provincias de Canchis (Espinar) y La Convención. </t>
+  </si>
+  <si>
+    <t>Oficio N° 350/2020-A-MPLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municipalidad Provincial La Convención </t>
+  </si>
+  <si>
+    <t>Comunica Acuerdos de Reunión Multisectorial.</t>
+  </si>
+  <si>
+    <t>Carta N° 070-2020-C.COVID-19.P.CANCHIS-P-WAM</t>
+  </si>
+  <si>
+    <t>Comando de Operaciones Canchis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requerimientos ante los posibles estragos de la pandemia en la provincia de Canchis y las demas provincias altas del Cusco. </t>
+  </si>
+  <si>
+    <t>Oficio N° 379-2020-GR CUSCO/GGR</t>
+  </si>
+  <si>
+    <t>Donacion de ventiladores mecanicos y suministros para apoyar al Perú en su lucha contra el COVID-19</t>
+  </si>
+  <si>
+    <t>Oficio N° 108-2020-GR CUSCO/GRI</t>
+  </si>
+  <si>
+    <t>Remite Cronograma Optimizados de Inversiones en Salud.</t>
+  </si>
+  <si>
+    <t>Oficio N° 110-2020-GRC-CRC-CRLC/MRBH</t>
+  </si>
+  <si>
+    <t>Gobierno Regional Cusco- Consejo Regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicita realice coordinaciones para la presencia del Comando COVID Nacional y la Ministra de Salud, en la Región. </t>
+  </si>
+  <si>
+    <t>Informe N° 994-2020-GR.CUSCO/ORAD-ORH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informe N° 058-2020/GRDS/SGCAA </t>
+  </si>
+  <si>
+    <t>Gobierno Regional Cusco/Sub Gerencia de Comunidades Andinas y A mazonicas</t>
+  </si>
+  <si>
+    <t>Informe de actividades en el Marco de la Instalación del Comando COVID-19.</t>
+  </si>
+  <si>
+    <t>Memorandum Multiple N° 185-2020-GR CUSCO7GGR</t>
+  </si>
+  <si>
+    <t>Gobierno Regional Cusco/Gerencia General</t>
+  </si>
+  <si>
+    <t>Comunica sobre donación de ventiladores mecánicos y suministros par apoyar al Perú en su lucha contra el COVID-19.</t>
+  </si>
+  <si>
+    <t>Memorandum N° 085-2020-GR CUSCO/GR</t>
+  </si>
+  <si>
+    <t>Gobierno Regional Cusco/Gobernatura Regional</t>
+  </si>
+  <si>
+    <t>Disponer la suspensión de labores para evitar mayores contagios para cautelar la salud y la vida de todos los trabajadores.</t>
+  </si>
+  <si>
+    <t>Oficio N° 004-2020-FREDEIN/WANCHAQ</t>
+  </si>
+  <si>
+    <t>Frente de Defensa de los Intereses de Wanchaq (FREDEIN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solicitamos información sobre las gestiones y/o estrategias para garantizar la salud y bienestra de la población. </t>
+  </si>
+  <si>
+    <t>Oficio N° 11-2020-GR CUSCO/ORAJ</t>
+  </si>
+  <si>
+    <t>Gobierno Regional Cusco/Oficina Regional de Asesoría Jurídica</t>
+  </si>
+  <si>
+    <t>Remite Opinión Legal de Proyecto de Ordenanza Regional que aprueba los Lineamientos y Medidas Sanitarias de Cuarentena Inteligente.</t>
+  </si>
+  <si>
+    <t>Oficio N° 191-2020-A/MDY-U-C</t>
+  </si>
+  <si>
+    <t>Municipalidad Distrital de Yucay</t>
+  </si>
+  <si>
+    <t>Solicita se declare en cuarentena al Distrito de Yucay, Provincia de Urubamba, Departamento de Cusco, por las graves circunstancias que afecta a la población por el COVID-19.</t>
+  </si>
+  <si>
+    <t>Oficio N° 358-2020-A/MPO/U</t>
+  </si>
+  <si>
+    <t>Municipalidad Provincial de Quispicnachi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Declara en Cuarentena la Provincia de Quispicanchi. </t>
+  </si>
+  <si>
+    <t>Oficio N° 73-2020- GR CUSCO/GRDE</t>
+  </si>
+  <si>
+    <t>Gobierno Regional Cusco/Gerencia de Desarrollo Economico</t>
+  </si>
+  <si>
+    <t>Avances de Conformación de Comisión y Elaboración de Plan de Contencio Economico.</t>
+  </si>
+  <si>
+    <t>Oficio N° 77-2020-COC-19/C</t>
+  </si>
+  <si>
+    <t>Comando de Operaciones COVID-19 Region Cusco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reitera solicitud de asignación de un nuevo Profesional </t>
+  </si>
+  <si>
+    <t>Oficio N° 59-2020-COC-19/C</t>
+  </si>
+  <si>
+    <t>Solicitar determinar funciones</t>
+  </si>
+  <si>
+    <t>Informe N° 2189-2020-GR-CUSCO/DRSC-DG-DEAIS-DMID-ACCESO</t>
+  </si>
+  <si>
+    <t>Dirección Regional de Salud (DIRESA)</t>
+  </si>
+  <si>
+    <t>Garantizar los medicamentos necesarios para la unidad de Cuidados Intensivos.</t>
+  </si>
+  <si>
+    <t>C. N° 061-20.dirgral.cbc</t>
+  </si>
+  <si>
+    <t>Centro Bartolomé de las Casas</t>
+  </si>
+  <si>
+    <t>Solicita exposición del Plan de Reactivación Economica Regional - COVID 19</t>
+  </si>
+  <si>
+    <t>Carta Colegio Médico reemplazo</t>
+  </si>
+  <si>
+    <t>Miembros del Colegio Médico Cusco que en representación del Decano participaran en las reuniones del COMANDO COVID-19</t>
+  </si>
+  <si>
+    <t>Carta Minera Bateas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minera Bateas - Comapñia de Fortuna Silver Mines Inc. </t>
+  </si>
+  <si>
+    <t>Relevo de Personal de la Unidad Minera Caylloma</t>
+  </si>
+  <si>
+    <t>Oficio 0003-2020-MINAGRI-SENASA-DECUS-AIAIA</t>
+  </si>
+  <si>
+    <t>Ministerio de Agricultura y Riego/ Servicio Nacional de Sanidad Agraria</t>
+  </si>
+  <si>
+    <t>Protocolos sanitarios para las actividades en los establecimientos de Procesamiento Primario de Alimentos Agropecuarios primarios y Piensos.</t>
+  </si>
+  <si>
+    <t>Oficio N° 41-2020-CONREDE CUSCO/DVP</t>
+  </si>
+  <si>
+    <t>Consejo Regional de Decanos de los Colegios Profesionales del Cusco - CONREDE CUSCO</t>
+  </si>
+  <si>
+    <t>Remito obdervaciones a propuesta de Ordenanza Regional para aprobar Lineamientos y Medidas Sanitarias de Cuarentena Inteligente y otras Medidas Sanitarias adicionales a las dispuestas por el Nivel Nacional.</t>
+  </si>
+  <si>
+    <t>Oficio N° 042-2020-CONREDE CUSCO/DVP</t>
+  </si>
+  <si>
+    <t>Adquisición de balones de oxígeno - Campaña solidaria "RESPIRA CUSCO"</t>
+  </si>
+  <si>
+    <t>Informe N° 2195-2020-GR-CUSCO-DRSC-DEIS</t>
+  </si>
+  <si>
+    <t>Informe de la situación Epidemiológica en la Region del Cusco.</t>
+  </si>
+  <si>
+    <t>Oficio N° 01-2020-ASESOR GR CUSCO/GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Referencia Oficio N° 090-2020-COC-19/C que solicita presentar alcanses, acuerdos y procesos necesarios par la gestión de provisión de oxígeno. </t>
+  </si>
+  <si>
+    <t>G-0663-2020  Facturación a INCASA - Funcionamiento Operativo Planta Cachimayo COVID-19</t>
+  </si>
+  <si>
+    <t>Empresa de Generación Eléctrica Machupicchu S.A. (EGEMSA)</t>
+  </si>
+  <si>
+    <t>Facturación a Industrias Cachimayo S.A. INCASA, Funcionamiento Operativo Planta Cachimayo COVID-19.</t>
+  </si>
+  <si>
+    <t>Oficio N° 233-2020-AL-SG-MDO/Q</t>
+  </si>
+  <si>
+    <t>Municipalidad Distrital de Oropesa</t>
+  </si>
+  <si>
+    <t>Solicita se tome medidas inmediatas con la declaración de Cuarentena Focalizada en el Distrito de Oropesa frente al aumento de Contagio masivo por el COVID-19.</t>
+  </si>
+  <si>
+    <t>Oficio N° 369-2020-MDP/AL</t>
+  </si>
+  <si>
+    <t>Municipalidad Distrital de Pichari - La Convención</t>
+  </si>
+  <si>
+    <t>Solicito creación de ambientes de hospitalización temporal (AHT) para pacientes con COVID-19.</t>
+  </si>
+  <si>
+    <t>Oficio N° 273-2020-A/MPC</t>
+  </si>
+  <si>
+    <t>Municipalidad Provincial de Calca</t>
+  </si>
+  <si>
+    <t>Pone de conocimiento Acuerdo de la Comisión Local Multisectorial de Emergencia y del Comando Provincial COVID-19 de la Provincia de Calca.</t>
+  </si>
+  <si>
+    <t>Oficio N° 003-2020/ASOCIACIÓN CIVIL SAYARISUNCHIS</t>
+  </si>
+  <si>
+    <t>Asociacion Civil Sayarisunchis</t>
+  </si>
+  <si>
+    <t>Presentación de estudio sobre movilidad de personas en la ciudad de Cusco durante la cuarentena.</t>
+  </si>
+  <si>
+    <t>Informe N° 2215-2020-GR CUSCO/DRSC-DEAIS</t>
+  </si>
+  <si>
+    <t>Comisión  para centros de aislamiento temporal.</t>
+  </si>
+  <si>
+    <t>Informe N° 2228-2020- GR CUSCO/DRSC-DEAIS</t>
+  </si>
+  <si>
+    <t>Dirección Ejecutiva de Atención  Integral de Salud- DIRESA</t>
+  </si>
+  <si>
+    <t>Remite Cuadros de Requerimiento de Insumos para la Atención delCOVID-19.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -114,7 +461,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -426,19 +773,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F04AFD1-B9E6-9F4A-B71A-83E5AF326453}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="181" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.33203125" customWidth="1"/>
+    <col min="1" max="3" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,50 +796,671 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44019</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44177</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>44025</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1">
-        <v>44183</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>44026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>44027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1">
+        <v>44027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1">
+        <v>44027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44037</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44034</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44041</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44042</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44047</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44041</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44041</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44041</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44047</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44051</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1">
+        <v>44049</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="1">
+        <v>44048</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="1">
+        <v>44047</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44053</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="1">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44053</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D39" s="1">
+        <v>44053</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="1">
+        <v>44054</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="1">
+        <v>44054</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="1">
+        <v>44056</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="1">
+        <v>44056</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" s="1">
+        <v>44056</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44056</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44060</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44060</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="1">
+        <v>44060</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{617C77AC-DF8F-2746-989C-48BE6103D7AE}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{EBEB3D9F-12F0-C94B-80AC-D4DF0338D56B}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla_emitidos.xlsx
+++ b/tabla_emitidos.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SARA\OneDrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bran/Documents/GitHub/repositorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94E1AA1-1229-8447-9082-2596C3526805}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10065" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="26640" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="730">
   <si>
     <t>Documento</t>
   </si>
@@ -33,9 +34,6 @@
   </si>
   <si>
     <t>Asunto</t>
-  </si>
-  <si>
-    <t>http://rstudio.com</t>
   </si>
   <si>
     <t>Fecha</t>
@@ -1518,12 +1516,726 @@
   </si>
   <si>
     <t>Oficio-020-2021-COC-19-C</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20001-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20002-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20003-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20004-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20005-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20006-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20007-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20008-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20009-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20010-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20011-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20012-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20013-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20014-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20015-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20016-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20017-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20018-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20019-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20020-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20021-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20022-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20023-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20024-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20025-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20028-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20029-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20030-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20040-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20041-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20042-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20043-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20045-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20046-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20047-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20048-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20049-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20050-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20051-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20052-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20064-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20065-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20066-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20067-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20068-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20069-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20070-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20071-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20072-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20073-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20074-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20075-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20076-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20077-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20078-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20079-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20080-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20081-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20082-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20083-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20084-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20085-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20086-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20087-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20088-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20089-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20090-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20091-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20092-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20094-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20095-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20096-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20097-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20098-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20099-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20100-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20101-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20102-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20103-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20104-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20105-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20106-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20107-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20108-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20110-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20111-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20112-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20113-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20117-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20119-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20120-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20121-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20122-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20123-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20124-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20125-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20126-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20127-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20128-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20129-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20130-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20131-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20132-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20133-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20134-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20135-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20136-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20137-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20138-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20139-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20140-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20141-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20142-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20143-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20144-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20145-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20146-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20147-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20148-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20149-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20150-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20151-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20152-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20153-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20154-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20155-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20156-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20157-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20158-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20159-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20160-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20161-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20162-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20163-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20164-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20165-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20166-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20167-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20168-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20169-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20170-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20171-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20172-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20173-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20174-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20175-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20176-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20177-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20178-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20179-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20180-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20181-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20182-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20183-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20184-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20185-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20186-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20187-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20188-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20189-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20190-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20191-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20192-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20193-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20194-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20195-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20196-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20197-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20198-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20199-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20200-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20201-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20202-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20203-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20204-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20205-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20206-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20207-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20208-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20209-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20210-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20211-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20212-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20213-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20214-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20215-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20216-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20217-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20218-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OFICIO%20001-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OFICIO%20002-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OFICIO%20003-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OFICIO%20004-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OFICIO%20005-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OFICIO%20006-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OFICIO%20007-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OFICIO%20008-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OFICIO%20009-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OFICIO%20010-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OFICIO%20011-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OFICIO%20012-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OFICIO%20013-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OFICIO%20014-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OFICIO%20015-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OFICIO%20016-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OFICIO%20017-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OFICIO%20018-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OFICIO%20019-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OFICIO%20020-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20026-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20027-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20031-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20032-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20033-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20034-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20035-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20036-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20037-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20038-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20039-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20044-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20053-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20054-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20055-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20056-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20057-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20058-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20059-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20060-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20061-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20062-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20063-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20093-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20109-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20114-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20115-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20116-2020-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20118-2020-COC-19C.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1588,7 +2300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1900,22 +2612,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F239"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E239"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.375" customWidth="1"/>
-    <col min="2" max="2" width="66.625" customWidth="1"/>
-    <col min="3" max="3" width="34.125" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="2" width="66.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1923,4069 +2635,4097 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <v>44019</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
         <v>44020</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>44020</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1">
         <v>44020</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
         <v>44022</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>44021</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1">
         <v>44021</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
         <v>44021</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>44022</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
         <v>44025</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1">
         <v>44025</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1">
         <v>44025</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1">
         <v>44026</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
       </c>
       <c r="D15" s="1">
         <v>44026</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1">
         <v>44026</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1">
         <v>44026</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1">
         <v>44022</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1">
         <v>44028</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
         <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
       </c>
       <c r="D20" s="1">
         <v>44028</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1">
         <v>44028</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1">
         <v>44028</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1">
         <v>44028</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1">
         <v>44028</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="1">
         <v>44028</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1">
         <v>44028</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="1">
         <v>44032</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
         <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
       </c>
       <c r="D28" s="1">
         <v>44029</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
         <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>41</v>
       </c>
       <c r="D29" s="1">
         <v>44029</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
         <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
       </c>
       <c r="D30" s="1">
         <v>44034</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
         <v>44</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
       </c>
       <c r="D31" s="1">
         <v>44032</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="1">
         <v>44034</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="1">
         <v>44033</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1">
         <v>44033</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D35" s="1">
         <v>44033</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
         <v>50</v>
-      </c>
-      <c r="C36" t="s">
-        <v>51</v>
       </c>
       <c r="D36" s="1">
         <v>44034</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" s="1">
         <v>44034</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1">
         <v>44034</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1">
         <v>44034</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" s="1">
         <v>44034</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" s="1">
         <v>44036</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42" s="1">
         <v>44036</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D43" s="1">
         <v>44036</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44" s="1">
         <v>44036</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" s="1">
         <v>44036</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" s="1">
         <v>44036</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" s="1">
         <v>44036</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" s="1">
         <v>44036</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D49" s="1">
         <v>44036</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50" s="1">
         <v>44036</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D51" s="1">
         <v>44036</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
         <v>61</v>
-      </c>
-      <c r="C52" t="s">
-        <v>62</v>
       </c>
       <c r="D52" s="1">
         <v>44036</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D53" s="1">
         <v>44036</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s">
         <v>64</v>
-      </c>
-      <c r="C54" t="s">
-        <v>65</v>
       </c>
       <c r="D54" s="1">
         <v>44036</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" s="1">
         <v>44061</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56" s="1">
         <v>44041</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B57" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D57" s="1">
         <v>44041</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D58" s="1">
         <v>44041</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D59" s="1">
         <v>44041</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" s="1">
         <v>44041</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D61" s="1">
         <v>44041</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" s="1">
         <v>44041</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" s="1">
         <v>44041</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" s="1">
         <v>44042</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D65" s="1">
         <v>44042</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D66" s="1">
         <v>44042</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67" s="1">
         <v>44042</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D68" s="1">
         <v>44042</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69" s="1">
         <v>44042</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D70" s="1">
         <v>44042</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D71" s="1">
         <v>44042</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D72" s="1">
         <v>44042</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D73" s="1">
         <v>44042</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D74" s="1">
         <v>44042</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D75" s="1">
         <v>44042</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D76" s="1">
         <v>44042</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" s="1">
         <v>44042</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" s="1">
         <v>44042</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" s="1">
         <v>44042</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D80" s="1">
         <v>44043</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D81" s="1">
         <v>44043</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" s="1">
         <v>44043</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D83" s="1">
         <v>44046</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D84" s="1">
         <v>44046</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D85" s="1">
         <v>44047</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" s="1">
         <v>44047</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D87" s="1">
         <v>44047</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D88" s="1">
         <v>44047</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" s="1">
         <v>44048</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" s="1">
         <v>44048</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D91" s="1">
         <v>44048</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D92" s="1">
         <v>44048</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" t="s">
         <v>94</v>
-      </c>
-      <c r="C93" t="s">
-        <v>95</v>
       </c>
       <c r="D93" s="1">
         <v>44049</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" t="s">
         <v>96</v>
-      </c>
-      <c r="C94" t="s">
-        <v>97</v>
       </c>
       <c r="D94" s="1">
         <v>44050</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B95" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D95" s="1">
         <v>44050</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" s="1">
         <v>44053</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D97" s="1">
         <v>44053</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D98" s="1">
         <v>44053</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" t="s">
         <v>101</v>
-      </c>
-      <c r="C99" t="s">
-        <v>102</v>
       </c>
       <c r="D99" s="1">
         <v>44054</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D100" s="1">
         <v>44054</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" t="s">
         <v>104</v>
-      </c>
-      <c r="C101" t="s">
-        <v>105</v>
       </c>
       <c r="D101" s="1">
         <v>44055</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D102" s="1">
         <v>44054</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D103" s="1">
         <v>44054</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D104" s="1">
         <v>44054</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D105" s="1">
         <v>44054</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D106" s="1">
         <v>44054</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D107" s="1">
         <v>44054</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D108" s="1">
         <v>44054</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D109" s="1">
         <v>44054</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D110" s="1">
         <v>44055</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D111" s="1">
         <v>44055</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D112" s="1">
         <v>44058</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D113" s="1">
         <v>44057</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D114" s="1">
         <v>44057</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D115" s="1">
         <v>44057</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B116" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" t="s">
         <v>120</v>
-      </c>
-      <c r="C116" t="s">
-        <v>121</v>
       </c>
       <c r="D116" s="1">
         <v>44057</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B117" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C117" t="s">
         <v>120</v>
-      </c>
-      <c r="C117" t="s">
-        <v>121</v>
       </c>
       <c r="D117" s="1">
         <v>44057</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B118" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118" t="s">
         <v>122</v>
-      </c>
-      <c r="C118" t="s">
-        <v>123</v>
       </c>
       <c r="D118" s="1">
         <v>44057</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D119" s="1">
         <v>44057</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" t="s">
         <v>125</v>
-      </c>
-      <c r="C120" t="s">
-        <v>126</v>
       </c>
       <c r="D120" s="1">
         <v>44060</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D121" s="1">
         <v>44062</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C122" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D122" s="1">
         <v>44060</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D123" s="1">
         <v>44062</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D124" s="1">
         <v>44062</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D125" s="1">
         <v>44062</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B126" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D126" s="1">
         <v>44069</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D127" s="1">
         <v>44070</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D128" s="1">
         <v>44070</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B129" t="s">
+        <v>131</v>
+      </c>
+      <c r="C129" t="s">
         <v>132</v>
-      </c>
-      <c r="C129" t="s">
-        <v>133</v>
       </c>
       <c r="D129" s="1">
         <v>44069</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D130" s="1">
         <v>44069</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B131" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D131" s="1">
         <v>44069</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D132" s="1">
         <v>44069</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D133" s="1">
         <v>44069</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B134" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D134" s="1">
         <v>44069</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B135" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D135" s="1">
         <v>44070</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B136" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C136" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D136" s="1">
         <v>44070</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C137" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D137" s="1">
         <v>44070</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B138" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D138" s="1">
         <v>44070</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B139" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D139" s="1">
         <v>44071</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D140" s="1">
         <v>44078</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D141" s="1">
         <v>44083</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D142" s="1">
         <v>44083</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D143" s="1">
         <v>44084</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D144" s="1">
         <v>44085</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D145" s="1">
         <v>44085</v>
       </c>
-      <c r="E145" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D146" s="1">
         <v>44085</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D147" s="1">
         <v>44088</v>
       </c>
-      <c r="E147" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D148" s="1">
         <v>44088</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E148" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D149" s="1">
         <v>44088</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D150" s="1">
         <v>44088</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E150" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D151" s="1">
         <v>44088</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E151" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B152" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C152" t="s">
         <v>154</v>
-      </c>
-      <c r="C152" t="s">
-        <v>155</v>
       </c>
       <c r="D152" s="1">
         <v>44084</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E152" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D153" s="1">
         <v>44084</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C154" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D154" s="1">
         <v>44088</v>
       </c>
-      <c r="E154" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D155" s="1">
         <v>44085</v>
       </c>
-      <c r="E155" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D156" s="1">
         <v>44096</v>
       </c>
-      <c r="E156" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D157" s="1">
         <v>44096</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E157" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D158" s="1">
         <v>44096</v>
       </c>
-      <c r="E158" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E158" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C159" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D159" s="1">
         <v>44096</v>
       </c>
-      <c r="E159" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E159" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C160" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D160" s="1">
         <v>44096</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E160" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D161" s="1">
         <v>44096</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D162" s="1">
         <v>44096</v>
       </c>
-      <c r="E162" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E162" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C163" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D163" s="1">
         <v>44096</v>
       </c>
-      <c r="E163" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E163" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C164" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D164" s="1">
         <v>44102</v>
       </c>
-      <c r="E164" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E164" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D165" s="1">
         <v>44098</v>
       </c>
-      <c r="E165" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E165" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C166" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D166" s="1">
         <v>44098</v>
       </c>
-      <c r="E166" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D167" s="1">
         <v>44096</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B168" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C168" t="s">
         <v>171</v>
-      </c>
-      <c r="C168" t="s">
-        <v>172</v>
       </c>
       <c r="D168" s="1">
         <v>44096</v>
       </c>
-      <c r="E168" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B169" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C169" t="s">
         <v>173</v>
-      </c>
-      <c r="C169" t="s">
-        <v>174</v>
       </c>
       <c r="D169" s="1">
         <v>44102</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E169" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C170" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D170" s="1">
         <v>44102</v>
       </c>
-      <c r="E170" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C171" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D171" s="1">
         <v>44109</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E171" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C172" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D172" s="1">
         <v>44109</v>
       </c>
-      <c r="E172" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E172" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C173" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D173" s="1">
         <v>44109</v>
       </c>
-      <c r="E173" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E173" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C174" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D174" s="1">
         <v>44109</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E174" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C175" t="s">
         <v>180</v>
-      </c>
-      <c r="C175" t="s">
-        <v>181</v>
       </c>
       <c r="D175" s="1">
         <v>44110</v>
       </c>
-      <c r="E175" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E175" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D176" s="1">
         <v>44112</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E176" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C177" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D177" s="1">
         <v>44123</v>
       </c>
-      <c r="E177" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C178" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D178" s="1">
         <v>44123</v>
       </c>
-      <c r="E178" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E178" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D179" s="1">
         <v>44123</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E179" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C180" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D180" s="1">
         <v>44138</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C181" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D181" s="1">
         <v>44139</v>
       </c>
-      <c r="E181" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E181" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C182" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D182" s="1">
         <v>44139</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E182" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C183" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D183" s="1">
         <v>44141</v>
       </c>
-      <c r="E183" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E183" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C184" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D184" s="1">
         <v>44141</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E184" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C185" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D185" s="1">
         <v>44147</v>
       </c>
-      <c r="E185" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E185" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D186" s="1">
         <v>44158</v>
       </c>
-      <c r="E186" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E186" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D187" s="1">
         <v>44160</v>
       </c>
-      <c r="E187" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E187" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C188" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D188" s="1">
         <v>44160</v>
       </c>
-      <c r="E188" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C189" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D189" s="1">
         <v>44160</v>
       </c>
-      <c r="E189" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E189" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C190" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D190" s="1">
         <v>44168</v>
       </c>
-      <c r="E190" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E190" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C191" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D191" s="1">
         <v>44168</v>
       </c>
-      <c r="E191" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C192" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D192" s="1">
         <v>44168</v>
       </c>
-      <c r="E192" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E192" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C193" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D193" s="1">
         <v>44172</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E193" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C194" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D194" s="1">
         <v>44172</v>
       </c>
-      <c r="E194" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E194" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C195" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D195" s="1">
         <v>44179</v>
       </c>
-      <c r="E195" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E195" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C196" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D196" s="1">
         <v>44179</v>
       </c>
-      <c r="E196" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C197" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D197" s="1">
         <v>44179</v>
       </c>
-      <c r="E197" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D198" s="1">
         <v>44179</v>
       </c>
-      <c r="E198" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C199" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D199" s="1">
         <v>44179</v>
       </c>
-      <c r="E199" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D200" s="1">
         <v>44179</v>
       </c>
-      <c r="E200" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C201" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D201" s="1">
         <v>44179</v>
       </c>
-      <c r="E201" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C202" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D202" s="1">
         <v>44179</v>
       </c>
-      <c r="E202" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C203" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D203" s="1">
         <v>44179</v>
       </c>
-      <c r="E203" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C204" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D204" s="1">
         <v>44179</v>
       </c>
-      <c r="E204" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D205" s="1">
         <v>44182</v>
       </c>
-      <c r="E205" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D206" s="1">
         <v>44182</v>
       </c>
-      <c r="E206" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D207" s="1">
         <v>44182</v>
       </c>
-      <c r="E207" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D208" s="1">
         <v>44186</v>
       </c>
-      <c r="E208" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D209" s="1">
         <v>44182</v>
       </c>
-      <c r="E209" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D210" s="1">
         <v>44183</v>
       </c>
-      <c r="E210" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D211" s="1">
         <v>44186</v>
       </c>
-      <c r="E211" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D212" s="1">
         <v>44186</v>
       </c>
-      <c r="E212" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D213" s="1">
         <v>44193</v>
       </c>
-      <c r="E213" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D214" s="1">
         <v>44193</v>
       </c>
-      <c r="E214" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B215" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C215" t="s">
         <v>218</v>
-      </c>
-      <c r="C215" t="s">
-        <v>219</v>
       </c>
       <c r="D215" s="1">
         <v>44195</v>
       </c>
-      <c r="E215" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C216" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D216" s="1">
         <v>44195</v>
       </c>
-      <c r="E216" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C217" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D217" s="1">
         <v>44195</v>
       </c>
-      <c r="E217" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C218" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D218" s="1">
         <v>44195</v>
       </c>
-      <c r="E218" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E218" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C219" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D219" s="1">
         <v>44200</v>
       </c>
-      <c r="E219" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E219" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C220" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D220" s="1">
         <v>44201</v>
       </c>
-      <c r="E220" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E220" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C221" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D221" s="1">
         <v>44201</v>
       </c>
-      <c r="E221" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E221" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C222" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D222" s="1">
         <v>44201</v>
       </c>
-      <c r="E222" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E222" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D223" s="1">
         <v>44201</v>
       </c>
-      <c r="E223" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E223" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D224" s="1">
         <v>44200</v>
       </c>
-      <c r="E224" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E224" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D225" s="1">
         <v>44204</v>
       </c>
-      <c r="E225" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E225" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B226" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C226" t="s">
         <v>228</v>
-      </c>
-      <c r="C226" t="s">
-        <v>229</v>
       </c>
       <c r="D226" s="1">
         <v>44207</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D227" s="1">
         <v>44204</v>
       </c>
-      <c r="E227" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E227" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D228" s="1">
         <v>44207</v>
       </c>
-      <c r="E228" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E228" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D229" s="1">
         <v>44204</v>
       </c>
-      <c r="E229" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E229" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D230" s="1">
         <v>44204</v>
       </c>
-      <c r="E230" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E230" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D231" s="1">
         <v>44204</v>
       </c>
-      <c r="E231" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E231" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D232" s="1">
         <v>44204</v>
       </c>
-      <c r="E232" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E232" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D233" s="1">
         <v>44204</v>
       </c>
-      <c r="E233" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E233" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D234" s="1">
         <v>44209</v>
       </c>
-      <c r="E234" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E234" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D235" s="1">
         <v>44210</v>
       </c>
-      <c r="E235" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E235" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D236" s="1">
         <v>44210</v>
       </c>
-      <c r="E236" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E236" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D237" s="1">
         <v>44210</v>
       </c>
-      <c r="E237" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E237" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D238" s="1">
         <v>44211</v>
       </c>
-      <c r="E238" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E238" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D239" s="1">
         <v>44216</v>
       </c>
-      <c r="E239" s="2" t="s">
-        <v>3</v>
+      <c r="E239" t="s">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
-    <hyperlink ref="E5:E239" r:id="rId3" display="http://rstudio.com"/>
-    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{15355C48-CE15-C945-B152-A59676DA738B}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{D4FAA9F0-1B3D-CF47-8D8D-C613A3B37475}"/>
+    <hyperlink ref="E226" r:id="rId3" xr:uid="{33529A68-FA60-214D-857F-5AF30734DDFB}"/>
+    <hyperlink ref="E27" r:id="rId4" xr:uid="{0987593F-F767-3048-B80D-E14EC2BA64A0}"/>
+    <hyperlink ref="E28" r:id="rId5" xr:uid="{3F4FDACC-D4D0-4143-8FC6-6ADDC6602E42}"/>
+    <hyperlink ref="E32" r:id="rId6" xr:uid="{88E25392-325B-004F-89C1-A1C8BA065671}"/>
+    <hyperlink ref="E33" r:id="rId7" xr:uid="{EFD5EAEC-088F-CE4C-B8A5-8DD918C6A1B2}"/>
+    <hyperlink ref="E34" r:id="rId8" xr:uid="{F13F6179-00F7-0048-8D01-6B5D08EF984F}"/>
+    <hyperlink ref="E35" r:id="rId9" xr:uid="{386B25FF-D320-4A49-9DD8-6EC4FA85430A}"/>
+    <hyperlink ref="E36" r:id="rId10" xr:uid="{93F116C2-98C7-3B4A-AC41-69912DA60C10}"/>
+    <hyperlink ref="E37" r:id="rId11" xr:uid="{058C67BE-A8FA-EF4B-B22C-0B0B72D8778E}"/>
+    <hyperlink ref="E38" r:id="rId12" xr:uid="{B4416B19-B297-E445-B508-239EC438047C}"/>
+    <hyperlink ref="E39" r:id="rId13" xr:uid="{9F557BC5-0E95-F04A-BE43-558E15BFC698}"/>
+    <hyperlink ref="E40" r:id="rId14" xr:uid="{5BFDD0EA-D289-614A-99AA-463B131EF31F}"/>
+    <hyperlink ref="E45" r:id="rId15" xr:uid="{B8F2653D-5B86-4945-BF4E-B574F6D39DFB}"/>
+    <hyperlink ref="E54" r:id="rId16" xr:uid="{1B2F613D-2BBC-D848-9426-7D64C39D4E80}"/>
+    <hyperlink ref="E55" r:id="rId17" xr:uid="{B1E13C8C-7A68-6748-971A-F624637BCA0D}"/>
+    <hyperlink ref="E56" r:id="rId18" xr:uid="{C43AD708-02A1-C04E-AAE8-45C94E6320A6}"/>
+    <hyperlink ref="E57" r:id="rId19" xr:uid="{673A2F90-93A3-454D-9E06-6AE6548CB1AC}"/>
+    <hyperlink ref="E58" r:id="rId20" xr:uid="{8B1FA7C8-CC79-A949-B8BE-9BC943451D48}"/>
+    <hyperlink ref="E59" r:id="rId21" xr:uid="{0B896D06-89BD-3241-92E9-36177C3D00B1}"/>
+    <hyperlink ref="E60" r:id="rId22" xr:uid="{EDFAEAFC-1539-9A42-AEA5-9420C9D444DE}"/>
+    <hyperlink ref="E61" r:id="rId23" xr:uid="{2DEA74C3-5CE5-F84E-BC05-569740A278EA}"/>
+    <hyperlink ref="E62" r:id="rId24" xr:uid="{D47DC6DD-726D-0441-9BB5-6B459E3D55C7}"/>
+    <hyperlink ref="E63" r:id="rId25" xr:uid="{D503ECC7-7152-BC4A-A86A-63E8696947E3}"/>
+    <hyperlink ref="E64" r:id="rId26" xr:uid="{F20E78BB-835B-6D4B-8DC3-D5423D03AA5F}"/>
+    <hyperlink ref="E94" r:id="rId27" xr:uid="{CA452B37-4977-F347-B2A1-653047C3FCFB}"/>
+    <hyperlink ref="E110" r:id="rId28" xr:uid="{944B8B6A-164E-A943-9677-A2C4E9328166}"/>
+    <hyperlink ref="E115" r:id="rId29" xr:uid="{2B154567-B997-474E-9BC4-21412318902F}"/>
+    <hyperlink ref="E116" r:id="rId30" xr:uid="{C4B5A6BC-1B0F-2748-9B4E-BDABAE00B685}"/>
+    <hyperlink ref="E117" r:id="rId31" xr:uid="{E5C2636A-3BD3-CD42-9636-935D94084AAE}"/>
+    <hyperlink ref="E119" r:id="rId32" xr:uid="{08D4B93E-C85D-0E47-9191-076A3994C10F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId33"/>
 </worksheet>
 </file>